--- a/打印软件通讯协议+-协议一.xlsx
+++ b/打印软件通讯协议+-协议一.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\项目\紫江集团\紫花企业\设计文档\通讯协议\打印软件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\紫华\zihua\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{98361A0C-32C2-49D5-86C1-9366E63BE18D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="12555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,11 +18,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="137">
   <si>
     <t>wIFi</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,13 +485,96 @@
   </si>
   <si>
     <t>分切工单;产品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_xx.0_dispatchlist(dispatchCode) ==&gt; globaldatabase.materiallist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>globaldatabase.materialinoutrecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人上班，通过该线PC登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server==&gt;PC 交接班记录，工人点确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">server&lt;==PC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人上班,登录系统，或接班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">server==&gt;PC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交接班记录，工人点确认</t>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人点击获取工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC==》server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器返回有效的工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有新的工单，新工单界面需要扫描物料确认匹配，若不匹配则报警，直到扫描到匹配的物料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人点击确认工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器设置工单状态，开始时间，等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server==》PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server传回上个交班记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码信息；重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_dispatchList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,9 +700,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,7 +721,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,6 +796,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -743,6 +848,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -918,11 +1040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +1056,8 @@
     <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="72" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.15">
@@ -1171,7 +1294,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1182,7 +1305,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1193,7 +1316,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1204,7 +1327,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1223,7 +1346,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
@@ -1244,7 +1367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1253,7 +1376,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1397,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
@@ -1293,7 +1416,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>27</v>
@@ -1314,7 +1437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1323,7 +1446,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -1344,7 +1467,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>34</v>
@@ -1362,8 +1485,11 @@
         <v>33</v>
       </c>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>35</v>
@@ -1382,7 +1508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1391,7 +1517,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>38</v>
@@ -1409,8 +1535,11 @@
         <v>39</v>
       </c>
       <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>40</v>
@@ -1427,7 +1556,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
         <v>41</v>
@@ -1446,7 +1575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1455,7 +1584,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
         <v>43</v>
@@ -1474,7 +1603,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>40</v>
@@ -1491,7 +1620,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
         <v>41</v>
@@ -1510,7 +1639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1519,7 +1648,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
@@ -1539,8 +1668,11 @@
         <v>6</v>
       </c>
       <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
         <v>86</v>
@@ -1558,8 +1690,11 @@
         <v>113</v>
       </c>
       <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
         <v>87</v>
@@ -1577,8 +1712,11 @@
       <c r="G41" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1587,7 +1725,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
         <v>45</v>
@@ -1602,11 +1740,14 @@
         <v>6</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
         <v>40</v>
@@ -1623,7 +1764,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
         <v>41</v>
@@ -1642,7 +1783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1651,7 +1792,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
         <v>51</v>
@@ -1669,8 +1810,11 @@
         <v>52</v>
       </c>
       <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H47" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
         <v>40</v>
@@ -2500,20 +2644,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B5:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="3" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
